--- a/document/詳細設計書/お祝い(詳細設計書).xlsx
+++ b/document/詳細設計書/お祝い(詳細設計書).xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\azusato\document\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005C437D-D8AD-4773-8460-A668D87BBE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAE25DE-BF97-424C-8704-FCC3CAAD2C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="1200" windowWidth="14100" windowHeight="13830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="お祝いリストAPI" sheetId="1" r:id="rId1"/>
     <sheet name="お祝い追加API" sheetId="6" r:id="rId2"/>
-    <sheet name="お祝い修正API" sheetId="11" r:id="rId3"/>
-    <sheet name="お祝い取得API" sheetId="13" r:id="rId4"/>
-    <sheet name="お祝い削除API" sheetId="17" r:id="rId5"/>
-    <sheet name="お祝い書き込み登録API" sheetId="18" r:id="rId6"/>
-    <sheet name="リストページ" sheetId="2" r:id="rId7"/>
-    <sheet name="追加ページ" sheetId="8" r:id="rId8"/>
-    <sheet name="修正ページ" sheetId="10" r:id="rId9"/>
-    <sheet name="削除ボタン" sheetId="15" r:id="rId10"/>
-    <sheet name="ページングアルゴリズム" sheetId="3" r:id="rId11"/>
+    <sheet name="お祝い追加実行" sheetId="20" r:id="rId3"/>
+    <sheet name="お祝い修正API" sheetId="11" r:id="rId4"/>
+    <sheet name="お祝い取得API" sheetId="13" r:id="rId5"/>
+    <sheet name="お祝い削除API" sheetId="17" r:id="rId6"/>
+    <sheet name="お祝い書き込み登録API" sheetId="18" r:id="rId7"/>
+    <sheet name="非ログインユーザ登録API" sheetId="19" r:id="rId8"/>
+    <sheet name="リストページ" sheetId="2" r:id="rId9"/>
+    <sheet name="追加ページ" sheetId="8" r:id="rId10"/>
+    <sheet name="修正ページ" sheetId="10" r:id="rId11"/>
+    <sheet name="削除ボタン" sheetId="15" r:id="rId12"/>
+    <sheet name="ページングアルゴリズム" sheetId="3" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="166">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -674,16 +676,6 @@
     <t>noticesはUserEntityのUserTypeが"管理者"のみ</t>
     <rPh sb="29" eb="32">
       <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UserRepository#findByUserTypeにより管理者のみ取得</t>
-    <rPh sb="32" eb="35">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -928,10 +920,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>URL : ja,ko/celebration/write.do</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Transctionを設定する。</t>
     <rPh sb="11" eb="13">
       <t>セッテイ</t>
@@ -939,19 +927,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お祝い登録を行う。</t>
-    <rPh sb="1" eb="2">
-      <t>イワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>修正行う</t>
     <rPh sb="0" eb="2">
       <t>シュウセイ</t>
@@ -1140,6 +1115,188 @@
   </si>
   <si>
     <t>celebration_reply_noより</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL : api/user/add/nonmember</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム文字列30文字でIDを生成する。</t>
+    <rPh sb="4" eb="7">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報を登録する。</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記から生成した文字列</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imageBase64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imageType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nonmember</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookieにloginUserキーでIDを登録する。</t>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookieにidがあるか確認ない場合は、非ログインユーザ登録APIを行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL : /celebration/write.do</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お祝い追加APIを実行する。</t>
+    <rPh sb="1" eb="2">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしたユーザが管理者以外の場合、UserRepository#findByUserTypeにより管理者のみ取得</t>
+    <rPh sb="10" eb="13">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userNo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isAdmin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションがあるかチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・もし、クッキーがないとエラーを発生する。</t>
+    <rPh sb="16" eb="18">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userNoよりUserEntityを取得</t>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキー情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない場合、クッキーをチェックする。userNo, adminUser= falseをセットし、Serviceを呼び出す。</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある場合、userNo,adminUser = tureをセットし、Serviceを呼び出す。</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1507,7 +1664,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1733,6 +1890,256 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D79FD86-8D88-440B-8BDC-15A7A575A382}">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="2.25" customWidth="1"/>
+    <col min="3" max="3" width="1.75" customWidth="1"/>
+    <col min="4" max="4" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCC996D-EBC9-4980-8CCA-04326C48152C}">
+  <dimension ref="B2:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="2.25" customWidth="1"/>
+    <col min="3" max="3" width="1.75" customWidth="1"/>
+    <col min="4" max="4" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59746B74-2AE5-42EF-85A7-024394408FB6}">
   <dimension ref="B2:D6"/>
   <sheetViews>
@@ -1752,7 +2159,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -1765,17 +2172,17 @@
     </row>
     <row r="4" spans="2:4">
       <c r="C4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="C6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +2191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20846EED-F30A-40E1-88C0-6089DA1A37EB}">
   <dimension ref="B2:H26"/>
   <sheetViews>
@@ -2094,30 +2501,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAEB948-2C43-4297-80C7-7A616B752684}">
-  <dimension ref="A2:D37"/>
+  <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="3.75" customWidth="1"/>
     <col min="3" max="3" width="3.375" customWidth="1"/>
-    <col min="4" max="4" width="3.875" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    <row r="3" spans="1:5">
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -2125,53 +2532,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="C5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="C10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="C11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="C13" t="s">
         <v>5</v>
       </c>
@@ -2179,139 +2578,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="D14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="D15" t="s">
+    <row r="16" spans="1:5">
+      <c r="D16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="D16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="D17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
       <c r="D18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
       <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="28" spans="1:5">
+      <c r="D28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="C29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="C31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="C32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="D35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
-      <c r="C36" t="s">
+    <row r="32" spans="1:5">
+      <c r="D32" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="D37" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2321,6 +2698,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05945429-1398-43F4-8280-7762DF2B0362}">
+  <dimension ref="A2:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="3.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C746DA21-4D48-4636-B980-78F45B58A1DD}">
   <dimension ref="A2:D30"/>
   <sheetViews>
@@ -2342,7 +2805,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2404,7 +2867,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2412,7 +2875,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2420,12 +2883,12 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2443,7 +2906,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -2473,32 +2936,32 @@
     </row>
     <row r="25" spans="2:4">
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="D26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="C27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="D28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="C29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="D30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2507,12 +2970,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A85A11-D416-4CDF-A1B6-2F026C73F499}">
   <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2529,7 +2992,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2542,7 +3005,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2571,12 +3034,12 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2594,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2614,32 +3077,32 @@
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="D18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="D20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="D22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +3111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35663F1B-C72C-4A3B-9D5A-23D61A0057B1}">
   <dimension ref="A2:D13"/>
   <sheetViews>
@@ -2670,7 +3133,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2683,7 +3146,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2712,7 +3175,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2720,7 +3183,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2728,17 +3191,17 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2747,12 +3210,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59893F-A09D-4BC7-A353-CE511DFA7A0F}">
   <dimension ref="A3:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2767,7 +3230,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2780,12 +3243,12 @@
     </row>
     <row r="6" spans="1:3">
       <c r="C6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2814,7 +3277,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2822,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2830,7 +3293,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2838,27 +3301,27 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="C15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="D18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +3330,164 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0116CF-84EF-4A12-8076-62CE78A41584}">
+  <dimension ref="A2:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="2.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D2FDBC-3407-456D-AFBB-2BBBE35B6BA0}">
   <dimension ref="B2:K40"/>
   <sheetViews>
@@ -3034,7 +3654,7 @@
     </row>
     <row r="27" spans="2:11">
       <c r="C27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -3103,7 +3723,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -3111,257 +3731,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D79FD86-8D88-440B-8BDC-15A7A575A382}">
-  <dimension ref="B2:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="2.25" customWidth="1"/>
-    <col min="3" max="3" width="1.75" customWidth="1"/>
-    <col min="4" max="4" width="2.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="D17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="D18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCC996D-EBC9-4980-8CCA-04326C48152C}">
-  <dimension ref="B2:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="2.25" customWidth="1"/>
-    <col min="3" max="3" width="1.75" customWidth="1"/>
-    <col min="4" max="4" width="2.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="D16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/document/詳細設計書/お祝い(詳細設計書).xlsx
+++ b/document/詳細設計書/お祝い(詳細設計書).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\azusato\document\詳細設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\azusato\document\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAE25DE-BF97-424C-8704-FCC3CAAD2C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F5BA35-0533-4B62-8908-077F6E54399C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="1200" windowWidth="14100" windowHeight="13830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="お祝いリストAPI" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="修正ページ" sheetId="10" r:id="rId11"/>
     <sheet name="削除ボタン" sheetId="15" r:id="rId12"/>
     <sheet name="ページングアルゴリズム" sheetId="3" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1366,7 +1367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2193,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20846EED-F30A-40E1-88C0-6089DA1A37EB}">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2397,35 +2398,29 @@
     </row>
     <row r="20" spans="3:8">
       <c r="E20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" s="2">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
     </row>
     <row r="21" spans="3:8">
       <c r="E21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" t="s">
-        <v>41</v>
+      <c r="G21" s="2">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="3:8">
       <c r="E22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -2439,7 +2434,7 @@
     </row>
     <row r="23" spans="3:8">
       <c r="E23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -2453,21 +2448,21 @@
     </row>
     <row r="24" spans="3:8">
       <c r="E24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="3:8">
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -2481,7 +2476,7 @@
     </row>
     <row r="26" spans="3:8">
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -2493,7 +2488,34 @@
         <v>40</v>
       </c>
     </row>
+    <row r="27" spans="3:8">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F575BABC-0976-4704-8890-49C298F5537B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2503,7 +2525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAEB948-2C43-4297-80C7-7A616B752684}">
   <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
